--- a/CIS-benchmarking/CIS_AIX_Controls_v0.xlsx
+++ b/CIS-benchmarking/CIS_AIX_Controls_v0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germainelry\Desktop\code\code-scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germainelry\Desktop\code\code-scripts\CIS-benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9C0E5-CA80-4620-8D42-6D6C277BE84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B3B6D9-90A4-4812-98CB-8FDF993CF562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="2270" windowWidth="22140" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16980" yWindow="1800" windowWidth="22140" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1776,11 +1776,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="47.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
